--- a/Pin FMEA.xlsx
+++ b/Pin FMEA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\source\proteus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9CD4206-096D-48B6-ADAF-C4B9000B20AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE3B089-61E0-4B51-AD0D-CC32ADCE0280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="2152" windowWidth="20865" windowHeight="13733" xr2:uid="{FCF392D7-4865-437D-9ABE-18F3509A5039}"/>
+    <workbookView xWindow="7590" yWindow="593" windowWidth="20865" windowHeight="13732" xr2:uid="{FCF392D7-4865-437D-9ABE-18F3509A5039}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
